--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3606.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3606.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.371812032085972</v>
+        <v>1.257483243942261</v>
       </c>
       <c r="B1">
-        <v>2.647518402979776</v>
+        <v>2.56754732131958</v>
       </c>
       <c r="C1">
-        <v>3.843591250843707</v>
+        <v>4.931248664855957</v>
       </c>
       <c r="D1">
-        <v>2.360790385033931</v>
+        <v>2.003765106201172</v>
       </c>
       <c r="E1">
-        <v>0.8526929440812377</v>
+        <v>1.154708027839661</v>
       </c>
     </row>
   </sheetData>
